--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inhba-Bambi.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inhba-Bambi.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H2">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I2">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J2">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.760188</v>
+        <v>2.313457666666666</v>
       </c>
       <c r="N2">
-        <v>8.280564</v>
+        <v>6.940372999999999</v>
       </c>
       <c r="O2">
-        <v>0.3388590190822334</v>
+        <v>0.2301612113045264</v>
       </c>
       <c r="P2">
-        <v>0.3388590190822334</v>
+        <v>0.2301612113045264</v>
       </c>
       <c r="Q2">
-        <v>0.1392662056026666</v>
+        <v>0.3015892817996666</v>
       </c>
       <c r="R2">
-        <v>1.253395850424</v>
+        <v>2.714303536196999</v>
       </c>
       <c r="S2">
-        <v>0.001143822083997932</v>
+        <v>0.001856868452538266</v>
       </c>
       <c r="T2">
-        <v>0.001143822083997931</v>
+        <v>0.001856868452538266</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H3">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I3">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J3">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.578615</v>
       </c>
       <c r="O3">
-        <v>0.1055226370438938</v>
+        <v>0.08551372554299623</v>
       </c>
       <c r="P3">
-        <v>0.1055226370438938</v>
+        <v>0.08551372554299624</v>
       </c>
       <c r="Q3">
-        <v>0.04336829312111111</v>
+        <v>0.1120519957483333</v>
       </c>
       <c r="R3">
-        <v>0.39031463809</v>
+        <v>1.008467961735</v>
       </c>
       <c r="S3">
-        <v>0.0003561927403892207</v>
+        <v>0.000689897912510172</v>
       </c>
       <c r="T3">
-        <v>0.0003561927403892205</v>
+        <v>0.0006898979125101721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H4">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I4">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J4">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.444358333333333</v>
+        <v>2.825399666666666</v>
       </c>
       <c r="N4">
-        <v>4.333074999999999</v>
+        <v>8.476198999999999</v>
       </c>
       <c r="O4">
-        <v>0.1773190261085777</v>
+        <v>0.281093282608617</v>
       </c>
       <c r="P4">
-        <v>0.1773190261085776</v>
+        <v>0.281093282608617</v>
       </c>
       <c r="Q4">
-        <v>0.07287558116111109</v>
+        <v>0.3683275767456666</v>
       </c>
       <c r="R4">
-        <v>0.6558802304499999</v>
+        <v>3.314948190711</v>
       </c>
       <c r="S4">
-        <v>0.0005985421858486133</v>
+        <v>0.002267772426717756</v>
       </c>
       <c r="T4">
-        <v>0.0005985421858486131</v>
+        <v>0.002267772426717756</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H5">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I5">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J5">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5517653333333333</v>
+        <v>0.3571766666666667</v>
       </c>
       <c r="N5">
-        <v>1.655296</v>
+        <v>1.07153</v>
       </c>
       <c r="O5">
-        <v>0.0677383785513577</v>
+        <v>0.03553478217224625</v>
       </c>
       <c r="P5">
-        <v>0.06773837855135768</v>
+        <v>0.03553478217224625</v>
       </c>
       <c r="Q5">
-        <v>0.02783950381511111</v>
+        <v>0.04656262179666666</v>
       </c>
       <c r="R5">
-        <v>0.250555534336</v>
+        <v>0.41906359617</v>
       </c>
       <c r="S5">
-        <v>0.0002286515894754802</v>
+        <v>0.0002866834755060467</v>
       </c>
       <c r="T5">
-        <v>0.0002286515894754801</v>
+        <v>0.0002866834755060468</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H6">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I6">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J6">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7227113333333334</v>
+        <v>1.303766</v>
       </c>
       <c r="N6">
-        <v>2.168134</v>
+        <v>3.911298</v>
       </c>
       <c r="O6">
-        <v>0.08872484537029593</v>
+        <v>0.1297090351560315</v>
       </c>
       <c r="P6">
-        <v>0.08872484537029593</v>
+        <v>0.1297090351560315</v>
       </c>
       <c r="Q6">
-        <v>0.03646464122711111</v>
+        <v>0.169962847058</v>
       </c>
       <c r="R6">
-        <v>0.328181771044</v>
+        <v>1.529665623522</v>
       </c>
       <c r="S6">
-        <v>0.0002994916228250602</v>
+        <v>0.001046451806650163</v>
       </c>
       <c r="T6">
-        <v>0.0002994916228250601</v>
+        <v>0.001046451806650163</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H7">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I7">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J7">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.806973666666667</v>
+        <v>2.392128</v>
       </c>
       <c r="N7">
-        <v>5.420921</v>
+        <v>7.176384000000001</v>
       </c>
       <c r="O7">
-        <v>0.2218360938436416</v>
+        <v>0.2379879632155826</v>
       </c>
       <c r="P7">
-        <v>0.2218360938436415</v>
+        <v>0.2379879632155826</v>
       </c>
       <c r="Q7">
-        <v>0.09117145867622221</v>
+        <v>0.3118449824639999</v>
       </c>
       <c r="R7">
-        <v>0.8205431280859999</v>
+        <v>2.806604842176</v>
       </c>
       <c r="S7">
-        <v>0.0007488100032084955</v>
+        <v>0.001920012231748981</v>
       </c>
       <c r="T7">
-        <v>0.0007488100032084951</v>
+        <v>0.001920012231748981</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>17.330513</v>
       </c>
       <c r="I8">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J8">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.760188</v>
+        <v>2.313457666666666</v>
       </c>
       <c r="N8">
-        <v>8.280564</v>
+        <v>6.940372999999999</v>
       </c>
       <c r="O8">
-        <v>0.3388590190822334</v>
+        <v>0.2301612113045264</v>
       </c>
       <c r="P8">
-        <v>0.3388590190822334</v>
+        <v>0.2301612113045264</v>
       </c>
       <c r="Q8">
-        <v>15.94515800548133</v>
+        <v>13.36446938903878</v>
       </c>
       <c r="R8">
-        <v>143.506422049332</v>
+        <v>120.280224501349</v>
       </c>
       <c r="S8">
-        <v>0.1309608729596689</v>
+        <v>0.08228429553376415</v>
       </c>
       <c r="T8">
-        <v>0.1309608729596689</v>
+        <v>0.08228429553376417</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>17.330513</v>
       </c>
       <c r="I9">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J9">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>2.578615</v>
       </c>
       <c r="O9">
-        <v>0.1055226370438938</v>
+        <v>0.08551372554299623</v>
       </c>
       <c r="P9">
-        <v>0.1055226370438938</v>
+        <v>0.08551372554299624</v>
       </c>
       <c r="Q9">
         <v>4.965413419943889</v>
@@ -1013,10 +1013,10 @@
         <v>44.688720779495</v>
       </c>
       <c r="S9">
-        <v>0.0407819650239883</v>
+        <v>0.03057177456136684</v>
       </c>
       <c r="T9">
-        <v>0.04078196502398829</v>
+        <v>0.03057177456136685</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>17.330513</v>
       </c>
       <c r="I10">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J10">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.444358333333333</v>
+        <v>2.825399666666666</v>
       </c>
       <c r="N10">
-        <v>4.333074999999999</v>
+        <v>8.476198999999999</v>
       </c>
       <c r="O10">
-        <v>0.1773190261085777</v>
+        <v>0.281093282608617</v>
       </c>
       <c r="P10">
-        <v>0.1773190261085776</v>
+        <v>0.281093282608617</v>
       </c>
       <c r="Q10">
-        <v>8.343823624163885</v>
+        <v>16.32187521778744</v>
       </c>
       <c r="R10">
-        <v>75.09441261747499</v>
+        <v>146.896876960087</v>
       </c>
       <c r="S10">
-        <v>0.06852954516138239</v>
+        <v>0.1004928789157292</v>
       </c>
       <c r="T10">
-        <v>0.06852954516138238</v>
+        <v>0.1004928789157292</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>17.330513</v>
       </c>
       <c r="I11">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J11">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.5517653333333333</v>
+        <v>0.3571766666666667</v>
       </c>
       <c r="N11">
-        <v>1.655296</v>
+        <v>1.07153</v>
       </c>
       <c r="O11">
-        <v>0.0677383785513577</v>
+        <v>0.03553478217224625</v>
       </c>
       <c r="P11">
-        <v>0.06773837855135768</v>
+        <v>0.03553478217224625</v>
       </c>
       <c r="Q11">
-        <v>3.187458760760889</v>
+        <v>2.063351621654444</v>
       </c>
       <c r="R11">
-        <v>28.687128846848</v>
+        <v>18.57016459489</v>
       </c>
       <c r="S11">
-        <v>0.02617925652970596</v>
+        <v>0.01270394130017138</v>
       </c>
       <c r="T11">
-        <v>0.02617925652970595</v>
+        <v>0.01270394130017138</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>17.330513</v>
       </c>
       <c r="I12">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J12">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7227113333333334</v>
+        <v>1.303766</v>
       </c>
       <c r="N12">
-        <v>2.168134</v>
+        <v>3.911298</v>
       </c>
       <c r="O12">
-        <v>0.08872484537029593</v>
+        <v>0.1297090351560315</v>
       </c>
       <c r="P12">
-        <v>0.08872484537029593</v>
+        <v>0.1297090351560315</v>
       </c>
       <c r="Q12">
-        <v>4.174986052526889</v>
+        <v>7.531644537319334</v>
       </c>
       <c r="R12">
-        <v>37.574874472742</v>
+        <v>67.78480083587401</v>
       </c>
       <c r="S12">
-        <v>0.03429002195183067</v>
+        <v>0.04637191697803861</v>
       </c>
       <c r="T12">
-        <v>0.03429002195183067</v>
+        <v>0.04637191697803861</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>17.330513</v>
       </c>
       <c r="I13">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J13">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.806973666666667</v>
+        <v>2.392128</v>
       </c>
       <c r="N13">
-        <v>5.420921</v>
+        <v>7.176384000000001</v>
       </c>
       <c r="O13">
-        <v>0.2218360938436416</v>
+        <v>0.2379879632155826</v>
       </c>
       <c r="P13">
-        <v>0.2218360938436415</v>
+        <v>0.2379879632155826</v>
       </c>
       <c r="Q13">
-        <v>10.43859354027478</v>
+        <v>13.818935133888</v>
       </c>
       <c r="R13">
-        <v>93.947341862473</v>
+        <v>124.370416204992</v>
       </c>
       <c r="S13">
-        <v>0.08573432273519066</v>
+        <v>0.08508241587588689</v>
       </c>
       <c r="T13">
-        <v>0.08573432273519065</v>
+        <v>0.08508241587588689</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1293,10 +1293,10 @@
         <v>1.88887</v>
       </c>
       <c r="I14">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J14">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.760188</v>
+        <v>2.313457666666666</v>
       </c>
       <c r="N14">
-        <v>8.280564</v>
+        <v>6.940372999999999</v>
       </c>
       <c r="O14">
-        <v>0.3388590190822334</v>
+        <v>0.2301612113045264</v>
       </c>
       <c r="P14">
-        <v>0.3388590190822334</v>
+        <v>0.2301612113045264</v>
       </c>
       <c r="Q14">
-        <v>1.737878769186667</v>
+        <v>1.456606927612222</v>
       </c>
       <c r="R14">
-        <v>15.64090892268</v>
+        <v>13.10946234851</v>
       </c>
       <c r="S14">
-        <v>0.01427355694013961</v>
+        <v>0.008968247928082746</v>
       </c>
       <c r="T14">
-        <v>0.01427355694013961</v>
+        <v>0.008968247928082748</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1355,10 +1355,10 @@
         <v>1.88887</v>
       </c>
       <c r="I15">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J15">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,10 +1373,10 @@
         <v>2.578615</v>
       </c>
       <c r="O15">
-        <v>0.1055226370438938</v>
+        <v>0.08551372554299623</v>
       </c>
       <c r="P15">
-        <v>0.1055226370438938</v>
+        <v>0.08551372554299624</v>
       </c>
       <c r="Q15">
         <v>0.5411853905611111</v>
@@ -1385,10 +1385,10 @@
         <v>4.87066851505</v>
       </c>
       <c r="S15">
-        <v>0.004444867285513175</v>
+        <v>0.003332048382856814</v>
       </c>
       <c r="T15">
-        <v>0.004444867285513173</v>
+        <v>0.003332048382856815</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1417,10 +1417,10 @@
         <v>1.88887</v>
       </c>
       <c r="I16">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J16">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.444358333333333</v>
+        <v>2.825399666666666</v>
       </c>
       <c r="N16">
-        <v>4.333074999999999</v>
+        <v>8.476198999999999</v>
       </c>
       <c r="O16">
-        <v>0.1773190261085777</v>
+        <v>0.281093282608617</v>
       </c>
       <c r="P16">
-        <v>0.1773190261085776</v>
+        <v>0.281093282608617</v>
       </c>
       <c r="Q16">
-        <v>0.9094017083611109</v>
+        <v>1.778937556125555</v>
       </c>
       <c r="R16">
-        <v>8.184615375249999</v>
+        <v>16.01043800513</v>
       </c>
       <c r="S16">
-        <v>0.007469103884517461</v>
+        <v>0.01095281970000273</v>
       </c>
       <c r="T16">
-        <v>0.007469103884517459</v>
+        <v>0.01095281970000273</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1479,10 +1479,10 @@
         <v>1.88887</v>
       </c>
       <c r="I17">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J17">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5517653333333333</v>
+        <v>0.3571766666666667</v>
       </c>
       <c r="N17">
-        <v>1.655296</v>
+        <v>1.07153</v>
       </c>
       <c r="O17">
-        <v>0.0677383785513577</v>
+        <v>0.03553478217224625</v>
       </c>
       <c r="P17">
-        <v>0.06773837855135768</v>
+        <v>0.03553478217224625</v>
       </c>
       <c r="Q17">
-        <v>0.3474043283911111</v>
+        <v>0.2248867634555556</v>
       </c>
       <c r="R17">
-        <v>3.12663895552</v>
+        <v>2.0239808711</v>
       </c>
       <c r="S17">
-        <v>0.002853303435464703</v>
+        <v>0.001384615308482485</v>
       </c>
       <c r="T17">
-        <v>0.002853303435464702</v>
+        <v>0.001384615308482485</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1541,10 +1541,10 @@
         <v>1.88887</v>
       </c>
       <c r="I18">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J18">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.7227113333333334</v>
+        <v>1.303766</v>
       </c>
       <c r="N18">
-        <v>2.168134</v>
+        <v>3.911298</v>
       </c>
       <c r="O18">
-        <v>0.08872484537029593</v>
+        <v>0.1297090351560315</v>
       </c>
       <c r="P18">
-        <v>0.08872484537029593</v>
+        <v>0.1297090351560315</v>
       </c>
       <c r="Q18">
-        <v>0.4550359187311111</v>
+        <v>0.8208814948066667</v>
       </c>
       <c r="R18">
-        <v>4.095323268580001</v>
+        <v>7.387933453260001</v>
       </c>
       <c r="S18">
-        <v>0.003737303896552537</v>
+        <v>0.005054121757521418</v>
       </c>
       <c r="T18">
-        <v>0.003737303896552537</v>
+        <v>0.00505412175752142</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1603,10 +1603,10 @@
         <v>1.88887</v>
       </c>
       <c r="I19">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J19">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.806973666666667</v>
+        <v>2.392128</v>
       </c>
       <c r="N19">
-        <v>5.420921</v>
+        <v>7.176384000000001</v>
       </c>
       <c r="O19">
-        <v>0.2218360938436416</v>
+        <v>0.2379879632155826</v>
       </c>
       <c r="P19">
-        <v>0.2218360938436415</v>
+        <v>0.2379879632155826</v>
       </c>
       <c r="Q19">
-        <v>1.137712783252222</v>
+        <v>1.50613960512</v>
       </c>
       <c r="R19">
-        <v>10.23941504927</v>
+        <v>13.55525644608</v>
       </c>
       <c r="S19">
-        <v>0.009344269854263379</v>
+        <v>0.009273217871593673</v>
       </c>
       <c r="T19">
-        <v>0.009344269854263376</v>
+        <v>0.009273217871593673</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H20">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I20">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J20">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.760188</v>
+        <v>2.313457666666666</v>
       </c>
       <c r="N20">
-        <v>8.280564</v>
+        <v>6.940372999999999</v>
       </c>
       <c r="O20">
-        <v>0.3388590190822334</v>
+        <v>0.2301612113045264</v>
       </c>
       <c r="P20">
-        <v>0.3388590190822334</v>
+        <v>0.2301612113045264</v>
       </c>
       <c r="Q20">
-        <v>2.270223347869333</v>
+        <v>2.137153684805333</v>
       </c>
       <c r="R20">
-        <v>20.432010130824</v>
+        <v>19.234383163248</v>
       </c>
       <c r="S20">
-        <v>0.01864581281340618</v>
+        <v>0.0131583365027441</v>
       </c>
       <c r="T20">
-        <v>0.01864581281340618</v>
+        <v>0.0131583365027441</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H21">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I21">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J21">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>2.578615</v>
       </c>
       <c r="O21">
-        <v>0.1055226370438938</v>
+        <v>0.08551372554299623</v>
       </c>
       <c r="P21">
-        <v>0.1055226370438938</v>
+        <v>0.08551372554299624</v>
       </c>
       <c r="Q21">
-        <v>0.7069605377322222</v>
+        <v>0.7940346360266668</v>
       </c>
       <c r="R21">
-        <v>6.36264483959</v>
+        <v>7.14631172424</v>
       </c>
       <c r="S21">
-        <v>0.005806412776695088</v>
+        <v>0.004888827139553378</v>
       </c>
       <c r="T21">
-        <v>0.005806412776695086</v>
+        <v>0.004888827139553378</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H22">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I22">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J22">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.444358333333333</v>
+        <v>2.825399666666666</v>
       </c>
       <c r="N22">
-        <v>4.333074999999999</v>
+        <v>8.476198999999999</v>
       </c>
       <c r="O22">
-        <v>0.1773190261085777</v>
+        <v>0.281093282608617</v>
       </c>
       <c r="P22">
-        <v>0.1773190261085776</v>
+        <v>0.281093282608617</v>
       </c>
       <c r="Q22">
-        <v>1.187968359772222</v>
+        <v>2.610081608869333</v>
       </c>
       <c r="R22">
-        <v>10.69171523795</v>
+        <v>23.490734479824</v>
       </c>
       <c r="S22">
-        <v>0.009757029274388795</v>
+        <v>0.01607012745658239</v>
       </c>
       <c r="T22">
-        <v>0.009757029274388792</v>
+        <v>0.01607012745658239</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H23">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I23">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J23">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.5517653333333333</v>
+        <v>0.3571766666666667</v>
       </c>
       <c r="N23">
-        <v>1.655296</v>
+        <v>1.07153</v>
       </c>
       <c r="O23">
-        <v>0.0677383785513577</v>
+        <v>0.03553478217224625</v>
       </c>
       <c r="P23">
-        <v>0.06773837855135768</v>
+        <v>0.03553478217224625</v>
       </c>
       <c r="Q23">
-        <v>0.4538207333262222</v>
+        <v>0.3299569472533334</v>
       </c>
       <c r="R23">
-        <v>4.084386599936</v>
+        <v>2.969612525280001</v>
       </c>
       <c r="S23">
-        <v>0.003727323328070407</v>
+        <v>0.00203152659270408</v>
       </c>
       <c r="T23">
-        <v>0.003727323328070406</v>
+        <v>0.00203152659270408</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H24">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I24">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J24">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.7227113333333334</v>
+        <v>1.303766</v>
       </c>
       <c r="N24">
-        <v>2.168134</v>
+        <v>3.911298</v>
       </c>
       <c r="O24">
-        <v>0.08872484537029593</v>
+        <v>0.1297090351560315</v>
       </c>
       <c r="P24">
-        <v>0.08872484537029593</v>
+        <v>0.1297090351560315</v>
       </c>
       <c r="Q24">
-        <v>0.5944218809382222</v>
+        <v>1.204408600672</v>
       </c>
       <c r="R24">
-        <v>5.349796928444</v>
+        <v>10.839677406048</v>
       </c>
       <c r="S24">
-        <v>0.004882109566254376</v>
+        <v>0.007415476840583354</v>
       </c>
       <c r="T24">
-        <v>0.004882109566254375</v>
+        <v>0.007415476840583354</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H25">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I25">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J25">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.806973666666667</v>
+        <v>2.392128</v>
       </c>
       <c r="N25">
-        <v>5.420921</v>
+        <v>7.176384000000001</v>
       </c>
       <c r="O25">
-        <v>0.2218360938436416</v>
+        <v>0.2379879632155826</v>
       </c>
       <c r="P25">
-        <v>0.2218360938436415</v>
+        <v>0.2379879632155826</v>
       </c>
       <c r="Q25">
-        <v>1.486215361798444</v>
+        <v>2.209828709376</v>
       </c>
       <c r="R25">
-        <v>13.375938256186</v>
+        <v>19.888458384384</v>
       </c>
       <c r="S25">
-        <v>0.01220659344487437</v>
+        <v>0.01360579259139368</v>
       </c>
       <c r="T25">
-        <v>0.01220659344487436</v>
+        <v>0.01360579259139368</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H26">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I26">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J26">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.760188</v>
+        <v>2.313457666666666</v>
       </c>
       <c r="N26">
-        <v>8.280564</v>
+        <v>6.940372999999999</v>
       </c>
       <c r="O26">
-        <v>0.3388590190822334</v>
+        <v>0.2301612113045264</v>
       </c>
       <c r="P26">
-        <v>0.3388590190822334</v>
+        <v>0.2301612113045264</v>
       </c>
       <c r="Q26">
-        <v>20.19320326537733</v>
+        <v>19.63246599317178</v>
       </c>
       <c r="R26">
-        <v>181.738829388396</v>
+        <v>176.692193938546</v>
       </c>
       <c r="S26">
-        <v>0.1658509452572855</v>
+        <v>0.1208760023921092</v>
       </c>
       <c r="T26">
-        <v>0.1658509452572854</v>
+        <v>0.1208760023921092</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H27">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I27">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J27">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>2.578615</v>
       </c>
       <c r="O27">
-        <v>0.1055226370438938</v>
+        <v>0.08551372554299623</v>
       </c>
       <c r="P27">
-        <v>0.1055226370438938</v>
+        <v>0.08551372554299624</v>
       </c>
       <c r="Q27">
-        <v>6.288279015553889</v>
+        <v>7.294214777358889</v>
       </c>
       <c r="R27">
-        <v>56.594511139985</v>
+        <v>65.64793299623</v>
       </c>
       <c r="S27">
-        <v>0.05164693313216531</v>
+        <v>0.04491007513693121</v>
       </c>
       <c r="T27">
-        <v>0.05164693313216528</v>
+        <v>0.04491007513693122</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H28">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I28">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J28">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.444358333333333</v>
+        <v>2.825399666666666</v>
       </c>
       <c r="N28">
-        <v>4.333074999999999</v>
+        <v>8.476198999999999</v>
       </c>
       <c r="O28">
-        <v>0.1773190261085777</v>
+        <v>0.281093282608617</v>
       </c>
       <c r="P28">
-        <v>0.1773190261085776</v>
+        <v>0.281093282608617</v>
       </c>
       <c r="Q28">
-        <v>10.56675176221389</v>
+        <v>23.97690853486644</v>
       </c>
       <c r="R28">
-        <v>95.10076585992498</v>
+        <v>215.792176813798</v>
       </c>
       <c r="S28">
-        <v>0.08678691265724318</v>
+        <v>0.1476244937555941</v>
       </c>
       <c r="T28">
-        <v>0.08678691265724316</v>
+        <v>0.1476244937555941</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H29">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I29">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J29">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.5517653333333333</v>
+        <v>0.3571766666666667</v>
       </c>
       <c r="N29">
-        <v>1.655296</v>
+        <v>1.07153</v>
       </c>
       <c r="O29">
-        <v>0.0677383785513577</v>
+        <v>0.03553478217224625</v>
       </c>
       <c r="P29">
-        <v>0.06773837855135768</v>
+        <v>0.03553478217224625</v>
       </c>
       <c r="Q29">
-        <v>4.036648782904889</v>
+        <v>3.031072866784445</v>
       </c>
       <c r="R29">
-        <v>36.329839046144</v>
+        <v>27.27965580106</v>
       </c>
       <c r="S29">
-        <v>0.03315382941072657</v>
+        <v>0.01866214724240567</v>
       </c>
       <c r="T29">
-        <v>0.03315382941072656</v>
+        <v>0.01866214724240568</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H30">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I30">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J30">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.7227113333333334</v>
+        <v>1.303766</v>
       </c>
       <c r="N30">
-        <v>2.168134</v>
+        <v>3.911298</v>
       </c>
       <c r="O30">
-        <v>0.08872484537029593</v>
+        <v>0.1297090351560315</v>
       </c>
       <c r="P30">
-        <v>0.08872484537029593</v>
+        <v>0.1297090351560315</v>
       </c>
       <c r="Q30">
-        <v>5.287269148402889</v>
+        <v>11.06401989837734</v>
       </c>
       <c r="R30">
-        <v>47.585422335626</v>
+        <v>99.57617908539601</v>
       </c>
       <c r="S30">
-        <v>0.04342543253629336</v>
+        <v>0.06812055582664678</v>
       </c>
       <c r="T30">
-        <v>0.04342543253629335</v>
+        <v>0.06812055582664679</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H31">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I31">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J31">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.806973666666667</v>
+        <v>2.392128</v>
       </c>
       <c r="N31">
-        <v>5.420921</v>
+        <v>7.176384000000001</v>
       </c>
       <c r="O31">
-        <v>0.2218360938436416</v>
+        <v>0.2379879632155826</v>
       </c>
       <c r="P31">
-        <v>0.2218360938436415</v>
+        <v>0.2379879632155826</v>
       </c>
       <c r="Q31">
-        <v>13.21960190616878</v>
+        <v>20.300078228352</v>
       </c>
       <c r="R31">
-        <v>118.976417155519</v>
+        <v>182.700704055168</v>
       </c>
       <c r="S31">
-        <v>0.1085753183013946</v>
+        <v>0.124986453833345</v>
       </c>
       <c r="T31">
-        <v>0.1085753183013946</v>
+        <v>0.124986453833345</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H32">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I32">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J32">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.760188</v>
+        <v>2.313457666666666</v>
       </c>
       <c r="N32">
-        <v>8.280564</v>
+        <v>6.940372999999999</v>
       </c>
       <c r="O32">
-        <v>0.3388590190822334</v>
+        <v>0.2301612113045264</v>
       </c>
       <c r="P32">
-        <v>0.3388590190822334</v>
+        <v>0.2301612113045264</v>
       </c>
       <c r="Q32">
-        <v>0.972094050592</v>
+        <v>0.4900905836322221</v>
       </c>
       <c r="R32">
-        <v>8.748846455328001</v>
+        <v>4.410815252689999</v>
       </c>
       <c r="S32">
-        <v>0.007984009027735309</v>
+        <v>0.003017460495287885</v>
       </c>
       <c r="T32">
-        <v>0.007984009027735306</v>
+        <v>0.003017460495287885</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H33">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I33">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J33">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>2.578615</v>
       </c>
       <c r="O33">
-        <v>0.1055226370438938</v>
+        <v>0.08551372554299623</v>
       </c>
       <c r="P33">
-        <v>0.1055226370438938</v>
+        <v>0.08551372554299624</v>
       </c>
       <c r="Q33">
-        <v>0.3027156483866668</v>
+        <v>0.1820874656611111</v>
       </c>
       <c r="R33">
-        <v>2.724440835480001</v>
+        <v>1.63878719095</v>
       </c>
       <c r="S33">
-        <v>0.002486266085142713</v>
+        <v>0.001121102409777799</v>
       </c>
       <c r="T33">
-        <v>0.002486266085142712</v>
+        <v>0.001121102409777799</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H34">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I34">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J34">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.444358333333333</v>
+        <v>2.825399666666666</v>
       </c>
       <c r="N34">
-        <v>4.333074999999999</v>
+        <v>8.476198999999999</v>
       </c>
       <c r="O34">
-        <v>0.1773190261085777</v>
+        <v>0.281093282608617</v>
       </c>
       <c r="P34">
-        <v>0.1773190261085776</v>
+        <v>0.281093282608617</v>
       </c>
       <c r="Q34">
-        <v>0.5086798952666666</v>
+        <v>0.5985420833855554</v>
       </c>
       <c r="R34">
-        <v>4.578119057399999</v>
+        <v>5.386878750469999</v>
       </c>
       <c r="S34">
-        <v>0.004177892945197231</v>
+        <v>0.00368519035399087</v>
       </c>
       <c r="T34">
-        <v>0.004177892945197229</v>
+        <v>0.00368519035399087</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H35">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I35">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J35">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.5517653333333333</v>
+        <v>0.3571766666666667</v>
       </c>
       <c r="N35">
-        <v>1.655296</v>
+        <v>1.07153</v>
       </c>
       <c r="O35">
-        <v>0.0677383785513577</v>
+        <v>0.03553478217224625</v>
       </c>
       <c r="P35">
-        <v>0.06773837855135768</v>
+        <v>0.03553478217224625</v>
       </c>
       <c r="Q35">
-        <v>0.1943229221546667</v>
+        <v>0.07566549565555555</v>
       </c>
       <c r="R35">
-        <v>1.748906299392</v>
+        <v>0.6809894609</v>
       </c>
       <c r="S35">
-        <v>0.001596014257914575</v>
+        <v>0.0004658682529765804</v>
       </c>
       <c r="T35">
-        <v>0.001596014257914574</v>
+        <v>0.0004658682529765805</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H36">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I36">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J36">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.7227113333333334</v>
+        <v>1.303766</v>
       </c>
       <c r="N36">
-        <v>2.168134</v>
+        <v>3.911298</v>
       </c>
       <c r="O36">
-        <v>0.08872484537029593</v>
+        <v>0.1297090351560315</v>
       </c>
       <c r="P36">
-        <v>0.08872484537029593</v>
+        <v>0.1297090351560315</v>
       </c>
       <c r="Q36">
-        <v>0.2545273682186667</v>
+        <v>0.2761941353266666</v>
       </c>
       <c r="R36">
-        <v>2.290746313968</v>
+        <v>2.48574721794</v>
       </c>
       <c r="S36">
-        <v>0.00209048579653993</v>
+        <v>0.001700511946591129</v>
       </c>
       <c r="T36">
-        <v>0.00209048579653993</v>
+        <v>0.00170051194659113</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H37">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I37">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J37">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.806973666666667</v>
+        <v>2.392128</v>
       </c>
       <c r="N37">
-        <v>5.420921</v>
+        <v>7.176384000000001</v>
       </c>
       <c r="O37">
-        <v>0.2218360938436416</v>
+        <v>0.2379879632155826</v>
       </c>
       <c r="P37">
-        <v>0.2218360938436415</v>
+        <v>0.2379879632155826</v>
       </c>
       <c r="Q37">
-        <v>0.6363872138213335</v>
+        <v>0.5067563692799999</v>
       </c>
       <c r="R37">
-        <v>5.727484924392001</v>
+        <v>4.56080732352</v>
       </c>
       <c r="S37">
-        <v>0.005226779504710056</v>
+        <v>0.003120070811614312</v>
       </c>
       <c r="T37">
-        <v>0.005226779504710054</v>
+        <v>0.003120070811614312</v>
       </c>
     </row>
   </sheetData>
